--- a/Macro_Data_from_SQL.xlsx
+++ b/Macro_Data_from_SQL.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c22f1ca899110f3/Dokumente/GitHub/AQM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_FFC65FC0F7F1EEFB30160B404B64D38948AA45B5" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{67EE678C-8208-450A-BBB3-F094F7A81EC9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="67080" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -433,8 +439,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,22 +492,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,7 +560,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,9 +592,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,6 +644,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -784,34 +837,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,12 +934,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -904,10 +977,10 @@
         <v>54.2</v>
       </c>
       <c r="P4">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -945,10 +1018,10 @@
         <v>53.3</v>
       </c>
       <c r="P5">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -986,10 +1059,10 @@
         <v>53.5</v>
       </c>
       <c r="P6">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1027,10 +1100,10 @@
         <v>55.2</v>
       </c>
       <c r="P7">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1068,15 +1141,15 @@
         <v>53.2</v>
       </c>
       <c r="P8">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9">
-        <v>-1.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C9">
         <v>2.9</v>
@@ -1085,7 +1158,7 @@
         <v>47.9</v>
       </c>
       <c r="E9">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F9">
         <v>50.2</v>
@@ -1109,10 +1182,10 @@
         <v>49.5</v>
       </c>
       <c r="P9">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1150,10 +1223,10 @@
         <v>49.6</v>
       </c>
       <c r="P10">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1194,7 +1267,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1235,7 +1308,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1264,7 +1337,7 @@
         <v>6.5</v>
       </c>
       <c r="M13">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N13">
         <v>0.3</v>
@@ -1276,7 +1349,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1296,7 +1369,7 @@
         <v>50.6</v>
       </c>
       <c r="H14">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J14">
         <v>12</v>
@@ -1317,7 +1390,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1337,7 +1410,7 @@
         <v>50.6</v>
       </c>
       <c r="H15">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J15">
         <v>12</v>
@@ -1346,7 +1419,7 @@
         <v>6.6</v>
       </c>
       <c r="M15">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1358,7 +1431,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1399,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1440,7 +1513,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1481,7 +1554,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1522,7 +1595,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1563,7 +1636,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1677,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1645,7 +1718,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1686,7 +1759,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1706,7 +1779,7 @@
         <v>51.1</v>
       </c>
       <c r="H24">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J24">
         <v>12.1</v>
@@ -1727,7 +1800,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -1768,7 +1841,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -1809,7 +1882,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -1850,7 +1923,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -1891,7 +1964,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -1932,7 +2005,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,7 +2046,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -2014,7 +2087,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2043,7 +2116,7 @@
         <v>7.6</v>
       </c>
       <c r="M32">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N32">
         <v>0.2</v>
@@ -2055,7 +2128,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2069,7 +2142,7 @@
         <v>53.9</v>
       </c>
       <c r="E33">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F33">
         <v>51</v>
@@ -2084,7 +2157,7 @@
         <v>7.8</v>
       </c>
       <c r="M33">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N33">
         <v>0.1</v>
@@ -2096,7 +2169,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2110,7 +2183,7 @@
         <v>53.7</v>
       </c>
       <c r="E34">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F34">
         <v>51.7</v>
@@ -2125,7 +2198,7 @@
         <v>7.4</v>
       </c>
       <c r="M34">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N34">
         <v>0.1</v>
@@ -2137,7 +2210,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2178,7 +2251,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -2207,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="M36">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2219,7 +2292,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2245,10 +2318,10 @@
         <v>11.6</v>
       </c>
       <c r="K37">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M37">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2260,7 +2333,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2301,7 +2374,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -2342,7 +2415,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -2383,7 +2456,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -2424,7 +2497,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -2450,7 +2523,7 @@
         <v>11.3</v>
       </c>
       <c r="K42">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="M42">
         <v>5.9</v>
@@ -2465,12 +2538,12 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B43">
-        <v>-1.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C43">
         <v>3.1</v>
@@ -2491,7 +2564,7 @@
         <v>11.2</v>
       </c>
       <c r="K43">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="M43">
         <v>5.8</v>
@@ -2506,7 +2579,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -2547,7 +2620,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,7 +2661,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,7 +2702,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -2667,10 +2740,10 @@
         <v>50.2</v>
       </c>
       <c r="P47">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -2711,7 +2784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
@@ -2752,7 +2825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -2790,10 +2863,10 @@
         <v>49.1</v>
       </c>
       <c r="P50">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -2834,7 +2907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -2860,7 +2933,7 @@
         <v>10.5</v>
       </c>
       <c r="K52">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M52">
         <v>5.8</v>
@@ -2875,7 +2948,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -2889,7 +2962,7 @@
         <v>50.9</v>
       </c>
       <c r="E53">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F53">
         <v>49</v>
@@ -2913,10 +2986,10 @@
         <v>49.2</v>
       </c>
       <c r="P53">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
@@ -2930,7 +3003,7 @@
         <v>52.9</v>
       </c>
       <c r="E54">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F54">
         <v>50.2</v>
@@ -2957,7 +3030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>69</v>
       </c>
@@ -2971,7 +3044,7 @@
         <v>53.7</v>
       </c>
       <c r="E55">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F55">
         <v>50.1</v>
@@ -2995,10 +3068,10 @@
         <v>51.3</v>
       </c>
       <c r="P55">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>70</v>
       </c>
@@ -3021,7 +3094,7 @@
         <v>-0.1</v>
       </c>
       <c r="J56">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="K56">
         <v>7.3</v>
@@ -3039,7 +3112,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
@@ -3062,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="K57">
         <v>7.5</v>
@@ -3077,10 +3150,10 @@
         <v>52.2</v>
       </c>
       <c r="P57">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>72</v>
       </c>
@@ -3121,7 +3194,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>73</v>
       </c>
@@ -3159,10 +3232,10 @@
         <v>49.8</v>
       </c>
       <c r="P59">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>74</v>
       </c>
@@ -3203,7 +3276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>75</v>
       </c>
@@ -3226,7 +3299,7 @@
         <v>0.5</v>
       </c>
       <c r="J61">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K61">
         <v>6.1</v>
@@ -3241,10 +3314,10 @@
         <v>51.8</v>
       </c>
       <c r="P61">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>76</v>
       </c>
@@ -3258,7 +3331,7 @@
         <v>55.3</v>
       </c>
       <c r="E62">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F62">
         <v>51.7</v>
@@ -3285,7 +3358,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>77</v>
       </c>
@@ -3305,10 +3378,10 @@
         <v>51.4</v>
       </c>
       <c r="H63">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J63">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="K63">
         <v>5.4</v>
@@ -3326,7 +3399,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>78</v>
       </c>
@@ -3370,7 +3443,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
@@ -3399,7 +3472,7 @@
         <v>9.6</v>
       </c>
       <c r="K65">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M65">
         <v>5.6</v>
@@ -3411,10 +3484,10 @@
         <v>57.7</v>
       </c>
       <c r="P65">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
@@ -3455,10 +3528,10 @@
         <v>56.5</v>
       </c>
       <c r="P66">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>81</v>
       </c>
@@ -3484,10 +3557,10 @@
         <v>1.9</v>
       </c>
       <c r="J67">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K67">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M67">
         <v>5.3</v>
@@ -3499,10 +3572,10 @@
         <v>55.8</v>
       </c>
       <c r="P67">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -3522,16 +3595,16 @@
         <v>51.2</v>
       </c>
       <c r="G68">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H68">
         <v>1.4</v>
       </c>
       <c r="J68">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K68">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M68">
         <v>5.2</v>
@@ -3543,10 +3616,10 @@
         <v>56.4</v>
       </c>
       <c r="P68">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>83</v>
       </c>
@@ -3566,7 +3639,7 @@
         <v>51.7</v>
       </c>
       <c r="G69">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H69">
         <v>1.3</v>
@@ -3575,10 +3648,10 @@
         <v>9.1</v>
       </c>
       <c r="K69">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M69">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N69">
         <v>0.1</v>
@@ -3590,7 +3663,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>84</v>
       </c>
@@ -3610,7 +3683,7 @@
         <v>51.4</v>
       </c>
       <c r="G70">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H70">
         <v>1.3</v>
@@ -3622,7 +3695,7 @@
         <v>3.9</v>
       </c>
       <c r="M70">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -3634,7 +3707,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>85</v>
       </c>
@@ -3663,7 +3736,7 @@
         <v>3.3</v>
       </c>
       <c r="M71">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N71">
         <v>0.4</v>
@@ -3672,10 +3745,10 @@
         <v>58.4</v>
       </c>
       <c r="P71">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
@@ -3716,7 +3789,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>87</v>
       </c>
@@ -3739,7 +3812,7 @@
         <v>1.4</v>
       </c>
       <c r="J73">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K73">
         <v>2.7</v>
@@ -3757,7 +3830,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>88</v>
       </c>
@@ -3768,7 +3841,7 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>64.09999999999999</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="E74">
         <v>1.7</v>
@@ -3780,13 +3853,13 @@
         <v>1.5</v>
       </c>
       <c r="J74">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K74">
         <v>2.5</v>
       </c>
       <c r="M74">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N74">
         <v>0.3</v>
@@ -3798,7 +3871,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>89</v>
       </c>
@@ -3824,13 +3897,13 @@
         <v>60.6</v>
       </c>
       <c r="J75">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K75">
         <v>2.5</v>
       </c>
       <c r="M75">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N75">
         <v>0.2</v>
@@ -3839,10 +3912,10 @@
         <v>59.7</v>
       </c>
       <c r="P75">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>90</v>
       </c>
@@ -3853,7 +3926,7 @@
         <v>2.9</v>
       </c>
       <c r="D76">
-        <v>65.09999999999999</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="E76">
         <v>1.5</v>
@@ -3871,10 +3944,10 @@
         <v>59.6</v>
       </c>
       <c r="J76">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K76">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M76">
         <v>5.2</v>
@@ -3889,7 +3962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>91</v>
       </c>
@@ -3900,7 +3973,7 @@
         <v>2.8</v>
       </c>
       <c r="D77">
-        <v>64.09999999999999</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="E77">
         <v>2.9</v>
@@ -3912,7 +3985,7 @@
         <v>5</v>
       </c>
       <c r="H77">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I77">
         <v>58.6</v>
@@ -3921,7 +3994,7 @@
         <v>8.6</v>
       </c>
       <c r="K77">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M77">
         <v>5</v>
@@ -3933,10 +4006,10 @@
         <v>60.9</v>
       </c>
       <c r="P77">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>92</v>
       </c>
@@ -3956,7 +4029,7 @@
         <v>51.5</v>
       </c>
       <c r="G78">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H78">
         <v>1.4</v>
@@ -3983,7 +4056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
@@ -4003,7 +4076,7 @@
         <v>51.4</v>
       </c>
       <c r="G79">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H79">
         <v>1.2</v>
@@ -4018,7 +4091,7 @@
         <v>2.4</v>
       </c>
       <c r="M79">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N79">
         <v>0.2</v>
@@ -4030,7 +4103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>94</v>
       </c>
@@ -4059,7 +4132,7 @@
         <v>55.5</v>
       </c>
       <c r="J80">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K80">
         <v>2.4</v>
@@ -4077,12 +4150,12 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B81">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C81">
         <v>2.5</v>
@@ -4106,10 +4179,10 @@
         <v>54.9</v>
       </c>
       <c r="J81">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K81">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M81">
         <v>4.7</v>
@@ -4124,7 +4197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>96</v>
       </c>
@@ -4144,10 +4217,10 @@
         <v>51.2</v>
       </c>
       <c r="G82">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H82">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I82">
         <v>55.1</v>
@@ -4171,7 +4244,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>97</v>
       </c>
@@ -4185,7 +4258,7 @@
         <v>64.2</v>
       </c>
       <c r="E83">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F83">
         <v>51.3</v>
@@ -4206,7 +4279,7 @@
         <v>3.1</v>
       </c>
       <c r="M83">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N83">
         <v>0.2</v>
@@ -4218,7 +4291,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>98</v>
       </c>
@@ -4238,7 +4311,7 @@
         <v>50.8</v>
       </c>
       <c r="G84">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H84">
         <v>2.1</v>
@@ -4265,12 +4338,12 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B85">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C85">
         <v>2.4</v>
@@ -4285,10 +4358,10 @@
         <v>50.2</v>
       </c>
       <c r="G85">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H85">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I85">
         <v>52</v>
@@ -4312,7 +4385,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>100</v>
       </c>
@@ -4326,7 +4399,7 @@
         <v>57.1</v>
       </c>
       <c r="E86">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F86">
         <v>50</v>
@@ -4359,7 +4432,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -4379,7 +4452,7 @@
         <v>49.4</v>
       </c>
       <c r="G87">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H87">
         <v>1.5</v>
@@ -4406,7 +4479,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>102</v>
       </c>
@@ -4414,7 +4487,7 @@
         <v>0.6</v>
       </c>
       <c r="C88">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D88">
         <v>54.6</v>
@@ -4438,7 +4511,7 @@
         <v>5</v>
       </c>
       <c r="M88">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -4450,7 +4523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>103</v>
       </c>
@@ -4458,7 +4531,7 @@
         <v>0.6</v>
       </c>
       <c r="C89">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D89">
         <v>54.5</v>
@@ -4485,7 +4558,7 @@
         <v>5.2</v>
       </c>
       <c r="M89">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N89">
         <v>0.3</v>
@@ -4497,7 +4570,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>104</v>
       </c>
@@ -4505,13 +4578,13 @@
         <v>0.7</v>
       </c>
       <c r="C90">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D90">
         <v>50.5</v>
       </c>
       <c r="E90">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F90">
         <v>50.5</v>
@@ -4544,7 +4617,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>105</v>
       </c>
@@ -4552,7 +4625,7 @@
         <v>0.7</v>
       </c>
       <c r="C91">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D91">
         <v>49.3</v>
@@ -4594,7 +4667,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>106</v>
       </c>
@@ -4602,7 +4675,7 @@
         <v>0.6</v>
       </c>
       <c r="C92">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D92">
         <v>49.1</v>
@@ -4626,7 +4699,7 @@
         <v>7.7</v>
       </c>
       <c r="K92">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L92">
         <v>49.8</v>
@@ -4644,7 +4717,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>107</v>
       </c>
@@ -4652,7 +4725,7 @@
         <v>0.6</v>
       </c>
       <c r="C93">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D93">
         <v>48.2</v>
@@ -4664,7 +4737,7 @@
         <v>49.4</v>
       </c>
       <c r="G93">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H93">
         <v>1.3</v>
@@ -4682,7 +4755,7 @@
         <v>48.6</v>
       </c>
       <c r="M93">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -4694,7 +4767,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>108</v>
       </c>
@@ -4702,7 +4775,7 @@
         <v>0.3</v>
       </c>
       <c r="C94">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D94">
         <v>45</v>
@@ -4726,7 +4799,7 @@
         <v>7.5</v>
       </c>
       <c r="K94">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L94">
         <v>49.3</v>
@@ -4744,7 +4817,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>109</v>
       </c>
@@ -4752,7 +4825,7 @@
         <v>0.3</v>
       </c>
       <c r="C95">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D95">
         <v>46.5</v>
@@ -4794,7 +4867,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>110</v>
       </c>
@@ -4802,7 +4875,7 @@
         <v>0.1</v>
       </c>
       <c r="C96">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D96">
         <v>44.5</v>
@@ -4844,7 +4917,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>111</v>
       </c>
@@ -4852,7 +4925,7 @@
         <v>-0.3</v>
       </c>
       <c r="C97">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D97">
         <v>49.5</v>
@@ -4864,7 +4937,7 @@
         <v>49.3</v>
       </c>
       <c r="G97">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H97">
         <v>0.7</v>
@@ -4882,7 +4955,7 @@
         <v>47.2</v>
       </c>
       <c r="M97">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N97">
         <v>0.3</v>
@@ -4894,7 +4967,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>112</v>
       </c>
@@ -4902,7 +4975,7 @@
         <v>-0.1</v>
       </c>
       <c r="C98">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D98">
         <v>48.5</v>
@@ -4914,7 +4987,7 @@
         <v>50.2</v>
       </c>
       <c r="G98">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -4932,7 +5005,7 @@
         <v>45.6</v>
       </c>
       <c r="M98">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N98">
         <v>0.2</v>
@@ -4944,7 +5017,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>113</v>
       </c>
@@ -4952,7 +5025,7 @@
         <v>0.2</v>
       </c>
       <c r="C99">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D99">
         <v>49.2</v>
@@ -4982,7 +5055,7 @@
         <v>47.5</v>
       </c>
       <c r="M99">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N99">
         <v>0.2</v>
@@ -4994,7 +5067,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>114</v>
       </c>
@@ -5002,7 +5075,7 @@
         <v>0.2</v>
       </c>
       <c r="C100">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D100">
         <v>48.5</v>
@@ -5041,7 +5114,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>115</v>
       </c>
@@ -5049,7 +5122,7 @@
         <v>-0.1</v>
       </c>
       <c r="C101">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D101">
         <v>49.7</v>
@@ -5058,7 +5131,7 @@
         <v>5.2</v>
       </c>
       <c r="F101">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="G101">
         <v>6.2</v>
@@ -5073,13 +5146,13 @@
         <v>7.4</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L101">
         <v>48.2</v>
       </c>
       <c r="M101">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N101">
         <v>0.1</v>
@@ -5091,7 +5164,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>116</v>
       </c>
@@ -5138,21 +5211,21 @@
         <v>49.1</v>
       </c>
       <c r="P102">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B103">
-        <v>-1.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C103">
         <v>3.3</v>
       </c>
       <c r="D103">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E103">
         <v>3.3</v>
@@ -5191,7 +5264,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>118</v>
       </c>
@@ -5226,7 +5299,7 @@
         <v>3</v>
       </c>
       <c r="L104">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="M104">
         <v>6.1</v>
@@ -5241,7 +5314,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>119</v>
       </c>
@@ -5291,7 +5364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>120</v>
       </c>
@@ -5338,10 +5411,10 @@
         <v>53.9</v>
       </c>
       <c r="P106">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>121</v>
       </c>
@@ -5391,7 +5464,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>122</v>
       </c>
@@ -5441,7 +5514,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>123</v>
       </c>
@@ -5491,7 +5564,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>124</v>
       </c>
@@ -5520,10 +5593,10 @@
         <v>53.8</v>
       </c>
       <c r="J110">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K110">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L110">
         <v>46.3</v>
@@ -5541,7 +5614,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>125</v>
       </c>
@@ -5570,10 +5643,10 @@
         <v>55.2</v>
       </c>
       <c r="J111">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K111">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L111">
         <v>49.7</v>
@@ -5591,7 +5664,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>126</v>
       </c>
@@ -5617,7 +5690,7 @@
         <v>54.8</v>
       </c>
       <c r="J112">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K112">
         <v>5.2</v>
@@ -5638,7 +5711,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>127</v>
       </c>
@@ -5667,7 +5740,7 @@
         <v>57.9</v>
       </c>
       <c r="J113">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K113">
         <v>5.7</v>
@@ -5688,7 +5761,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>128</v>
       </c>
@@ -5699,7 +5772,7 @@
         <v>3.3</v>
       </c>
       <c r="D114">
-        <v>65.59999999999999</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="E114">
         <v>0.4</v>
@@ -5717,7 +5790,7 @@
         <v>62.5</v>
       </c>
       <c r="J114">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K114">
         <v>5.8</v>
@@ -5738,7 +5811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>129</v>
       </c>
@@ -5758,7 +5831,7 @@
         <v>51.1</v>
       </c>
       <c r="G115">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H115">
         <v>1.6</v>
@@ -5767,7 +5840,7 @@
         <v>62.9</v>
       </c>
       <c r="J115">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K115">
         <v>5.5</v>
@@ -5788,7 +5861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>130</v>
       </c>
@@ -5799,7 +5872,7 @@
         <v>3.2</v>
       </c>
       <c r="D116">
-        <v>68.59999999999999</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="E116">
         <v>1.3</v>
@@ -5826,7 +5899,7 @@
         <v>51.9</v>
       </c>
       <c r="M116">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N116">
         <v>0.7</v>
@@ -5838,7 +5911,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>131</v>
       </c>
@@ -5849,10 +5922,10 @@
         <v>3.1</v>
       </c>
       <c r="D117">
-        <v>67.09999999999999</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E117">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F117">
         <v>50.9</v>
@@ -5888,7 +5961,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>132</v>
       </c>
@@ -5908,10 +5981,10 @@
         <v>50.4</v>
       </c>
       <c r="G118">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H118">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I118">
         <v>62.8</v>
@@ -5938,7 +6011,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>133</v>
       </c>
@@ -5958,7 +6031,7 @@
         <v>50.1</v>
       </c>
       <c r="G119">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -5976,7 +6049,7 @@
         <v>46.5</v>
       </c>
       <c r="M119">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N119">
         <v>0.3</v>
@@ -5988,7 +6061,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>134</v>
       </c>
@@ -5999,7 +6072,7 @@
         <v>2.8</v>
       </c>
       <c r="D120">
-        <v>67.59999999999999</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="E120">
         <v>0.7</v>
@@ -6008,7 +6081,7 @@
         <v>49.6</v>
       </c>
       <c r="G120">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H120">
         <v>3.4</v>
@@ -6038,7 +6111,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>135</v>
       </c>
@@ -6058,10 +6131,10 @@
         <v>49.2</v>
       </c>
       <c r="G121">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H121">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I121">
         <v>58.3</v>
@@ -6085,10 +6158,10 @@
         <v>60.8</v>
       </c>
       <c r="P121">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>136</v>
       </c>
@@ -6102,7 +6175,7 @@
         <v>63.8</v>
       </c>
       <c r="E122">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F122">
         <v>50.1</v>
@@ -6111,7 +6184,7 @@
         <v>5</v>
       </c>
       <c r="H122">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I122">
         <v>58.4</v>
@@ -6138,7 +6211,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>137</v>
       </c>
@@ -6158,7 +6231,7 @@
         <v>50.3</v>
       </c>
       <c r="G123">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H123">
         <v>5</v>

--- a/Macro_Data_from_SQL.xlsx
+++ b/Macro_Data_from_SQL.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c22f1ca899110f3/Dokumente/GitHub/AQM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_FFC65FC0F7F1EEFB30160B404B64D38948AA45B5" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{67EE678C-8208-450A-BBB3-F094F7A81EC9}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -439,8 +433,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,33 +486,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -560,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,27 +575,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,24 +609,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -837,54 +784,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,12 +861,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -977,10 +904,10 @@
         <v>54.2</v>
       </c>
       <c r="P4">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1018,10 +945,10 @@
         <v>53.3</v>
       </c>
       <c r="P5">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1059,10 +986,10 @@
         <v>53.5</v>
       </c>
       <c r="P6">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1100,10 +1027,10 @@
         <v>55.2</v>
       </c>
       <c r="P7">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1141,15 +1068,15 @@
         <v>53.2</v>
       </c>
       <c r="P8">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="C9">
         <v>2.9</v>
@@ -1158,7 +1085,7 @@
         <v>47.9</v>
       </c>
       <c r="E9">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F9">
         <v>50.2</v>
@@ -1182,10 +1109,10 @@
         <v>49.5</v>
       </c>
       <c r="P9">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1223,10 +1150,10 @@
         <v>49.6</v>
       </c>
       <c r="P10">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1267,7 +1194,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,7 +1235,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1337,7 +1264,7 @@
         <v>6.5</v>
       </c>
       <c r="M13">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="N13">
         <v>0.3</v>
@@ -1349,7 +1276,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1369,7 +1296,7 @@
         <v>50.6</v>
       </c>
       <c r="H14">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J14">
         <v>12</v>
@@ -1390,7 +1317,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1410,7 +1337,7 @@
         <v>50.6</v>
       </c>
       <c r="H15">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J15">
         <v>12</v>
@@ -1419,7 +1346,7 @@
         <v>6.6</v>
       </c>
       <c r="M15">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1431,7 +1358,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1472,7 +1399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1513,7 +1440,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1554,7 +1481,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1595,7 +1522,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1636,7 +1563,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1677,7 +1604,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1718,7 +1645,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1759,7 +1686,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1779,7 +1706,7 @@
         <v>51.1</v>
       </c>
       <c r="H24">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J24">
         <v>12.1</v>
@@ -1800,7 +1727,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -1841,7 +1768,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -1882,7 +1809,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -1923,7 +1850,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -1964,7 +1891,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -2005,7 +1932,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -2046,7 +1973,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -2087,7 +2014,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2116,7 +2043,7 @@
         <v>7.6</v>
       </c>
       <c r="M32">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="N32">
         <v>0.2</v>
@@ -2128,7 +2055,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2142,7 +2069,7 @@
         <v>53.9</v>
       </c>
       <c r="E33">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F33">
         <v>51</v>
@@ -2157,7 +2084,7 @@
         <v>7.8</v>
       </c>
       <c r="M33">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="N33">
         <v>0.1</v>
@@ -2169,7 +2096,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2183,7 +2110,7 @@
         <v>53.7</v>
       </c>
       <c r="E34">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F34">
         <v>51.7</v>
@@ -2198,7 +2125,7 @@
         <v>7.4</v>
       </c>
       <c r="M34">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="N34">
         <v>0.1</v>
@@ -2210,7 +2137,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2251,7 +2178,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -2280,7 +2207,7 @@
         <v>8</v>
       </c>
       <c r="M36">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2292,7 +2219,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2318,10 +2245,10 @@
         <v>11.6</v>
       </c>
       <c r="K37">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M37">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2333,7 +2260,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2374,7 +2301,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -2415,7 +2342,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -2456,7 +2383,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -2497,7 +2424,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -2523,7 +2450,7 @@
         <v>11.3</v>
       </c>
       <c r="K42">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="M42">
         <v>5.9</v>
@@ -2538,12 +2465,12 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B43">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="C43">
         <v>3.1</v>
@@ -2564,7 +2491,7 @@
         <v>11.2</v>
       </c>
       <c r="K43">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="M43">
         <v>5.8</v>
@@ -2579,7 +2506,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -2620,7 +2547,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
@@ -2661,7 +2588,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
@@ -2702,7 +2629,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -2740,10 +2667,10 @@
         <v>50.2</v>
       </c>
       <c r="P47">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -2784,7 +2711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
@@ -2825,7 +2752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -2863,10 +2790,10 @@
         <v>49.1</v>
       </c>
       <c r="P50">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -2907,7 +2834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -2933,7 +2860,7 @@
         <v>10.5</v>
       </c>
       <c r="K52">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M52">
         <v>5.8</v>
@@ -2948,7 +2875,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -2962,7 +2889,7 @@
         <v>50.9</v>
       </c>
       <c r="E53">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F53">
         <v>49</v>
@@ -2986,10 +2913,10 @@
         <v>49.2</v>
       </c>
       <c r="P53">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
@@ -3003,7 +2930,7 @@
         <v>52.9</v>
       </c>
       <c r="E54">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F54">
         <v>50.2</v>
@@ -3030,7 +2957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
         <v>69</v>
       </c>
@@ -3044,7 +2971,7 @@
         <v>53.7</v>
       </c>
       <c r="E55">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F55">
         <v>50.1</v>
@@ -3068,10 +2995,10 @@
         <v>51.3</v>
       </c>
       <c r="P55">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
         <v>70</v>
       </c>
@@ -3094,7 +3021,7 @@
         <v>-0.1</v>
       </c>
       <c r="J56">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="K56">
         <v>7.3</v>
@@ -3112,7 +3039,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
@@ -3135,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="K57">
         <v>7.5</v>
@@ -3150,10 +3077,10 @@
         <v>52.2</v>
       </c>
       <c r="P57">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
         <v>72</v>
       </c>
@@ -3194,7 +3121,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
         <v>73</v>
       </c>
@@ -3232,10 +3159,10 @@
         <v>49.8</v>
       </c>
       <c r="P59">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
         <v>74</v>
       </c>
@@ -3276,7 +3203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
         <v>75</v>
       </c>
@@ -3299,7 +3226,7 @@
         <v>0.5</v>
       </c>
       <c r="J61">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K61">
         <v>6.1</v>
@@ -3314,10 +3241,10 @@
         <v>51.8</v>
       </c>
       <c r="P61">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
         <v>76</v>
       </c>
@@ -3331,7 +3258,7 @@
         <v>55.3</v>
       </c>
       <c r="E62">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F62">
         <v>51.7</v>
@@ -3358,7 +3285,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
         <v>77</v>
       </c>
@@ -3378,10 +3305,10 @@
         <v>51.4</v>
       </c>
       <c r="H63">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J63">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K63">
         <v>5.4</v>
@@ -3399,7 +3326,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
         <v>78</v>
       </c>
@@ -3443,7 +3370,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
@@ -3472,7 +3399,7 @@
         <v>9.6</v>
       </c>
       <c r="K65">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="M65">
         <v>5.6</v>
@@ -3484,10 +3411,10 @@
         <v>57.7</v>
       </c>
       <c r="P65">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
@@ -3528,10 +3455,10 @@
         <v>56.5</v>
       </c>
       <c r="P66">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
         <v>81</v>
       </c>
@@ -3557,10 +3484,10 @@
         <v>1.9</v>
       </c>
       <c r="J67">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K67">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="M67">
         <v>5.3</v>
@@ -3572,10 +3499,10 @@
         <v>55.8</v>
       </c>
       <c r="P67">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -3595,16 +3522,16 @@
         <v>51.2</v>
       </c>
       <c r="G68">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="H68">
         <v>1.4</v>
       </c>
       <c r="J68">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K68">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="M68">
         <v>5.2</v>
@@ -3616,10 +3543,10 @@
         <v>56.4</v>
       </c>
       <c r="P68">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
         <v>83</v>
       </c>
@@ -3639,7 +3566,7 @@
         <v>51.7</v>
       </c>
       <c r="G69">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="H69">
         <v>1.3</v>
@@ -3648,10 +3575,10 @@
         <v>9.1</v>
       </c>
       <c r="K69">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="M69">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="N69">
         <v>0.1</v>
@@ -3663,7 +3590,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,7 +3610,7 @@
         <v>51.4</v>
       </c>
       <c r="G70">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H70">
         <v>1.3</v>
@@ -3695,7 +3622,7 @@
         <v>3.9</v>
       </c>
       <c r="M70">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -3707,7 +3634,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
         <v>85</v>
       </c>
@@ -3736,7 +3663,7 @@
         <v>3.3</v>
       </c>
       <c r="M71">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="N71">
         <v>0.4</v>
@@ -3745,10 +3672,10 @@
         <v>58.4</v>
       </c>
       <c r="P71">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
@@ -3789,7 +3716,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
         <v>87</v>
       </c>
@@ -3812,7 +3739,7 @@
         <v>1.4</v>
       </c>
       <c r="J73">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K73">
         <v>2.7</v>
@@ -3830,7 +3757,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
         <v>88</v>
       </c>
@@ -3841,7 +3768,7 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>64.099999999999994</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E74">
         <v>1.7</v>
@@ -3853,13 +3780,13 @@
         <v>1.5</v>
       </c>
       <c r="J74">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K74">
         <v>2.5</v>
       </c>
       <c r="M74">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="N74">
         <v>0.3</v>
@@ -3871,7 +3798,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
         <v>89</v>
       </c>
@@ -3897,13 +3824,13 @@
         <v>60.6</v>
       </c>
       <c r="J75">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K75">
         <v>2.5</v>
       </c>
       <c r="M75">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="N75">
         <v>0.2</v>
@@ -3912,10 +3839,10 @@
         <v>59.7</v>
       </c>
       <c r="P75">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
         <v>90</v>
       </c>
@@ -3926,7 +3853,7 @@
         <v>2.9</v>
       </c>
       <c r="D76">
-        <v>65.099999999999994</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E76">
         <v>1.5</v>
@@ -3944,10 +3871,10 @@
         <v>59.6</v>
       </c>
       <c r="J76">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K76">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="M76">
         <v>5.2</v>
@@ -3962,7 +3889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
         <v>91</v>
       </c>
@@ -3973,7 +3900,7 @@
         <v>2.8</v>
       </c>
       <c r="D77">
-        <v>64.099999999999994</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E77">
         <v>2.9</v>
@@ -3985,7 +3912,7 @@
         <v>5</v>
       </c>
       <c r="H77">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I77">
         <v>58.6</v>
@@ -3994,7 +3921,7 @@
         <v>8.6</v>
       </c>
       <c r="K77">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="M77">
         <v>5</v>
@@ -4006,10 +3933,10 @@
         <v>60.9</v>
       </c>
       <c r="P77">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
         <v>92</v>
       </c>
@@ -4029,7 +3956,7 @@
         <v>51.5</v>
       </c>
       <c r="G78">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H78">
         <v>1.4</v>
@@ -4056,7 +3983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
@@ -4076,7 +4003,7 @@
         <v>51.4</v>
       </c>
       <c r="G79">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="H79">
         <v>1.2</v>
@@ -4091,7 +4018,7 @@
         <v>2.4</v>
       </c>
       <c r="M79">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="N79">
         <v>0.2</v>
@@ -4103,7 +4030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
         <v>94</v>
       </c>
@@ -4132,7 +4059,7 @@
         <v>55.5</v>
       </c>
       <c r="J80">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K80">
         <v>2.4</v>
@@ -4150,12 +4077,12 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B81">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C81">
         <v>2.5</v>
@@ -4179,10 +4106,10 @@
         <v>54.9</v>
       </c>
       <c r="J81">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K81">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="M81">
         <v>4.7</v>
@@ -4197,7 +4124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
         <v>96</v>
       </c>
@@ -4217,10 +4144,10 @@
         <v>51.2</v>
       </c>
       <c r="G82">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H82">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="I82">
         <v>55.1</v>
@@ -4244,7 +4171,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
         <v>97</v>
       </c>
@@ -4258,7 +4185,7 @@
         <v>64.2</v>
       </c>
       <c r="E83">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F83">
         <v>51.3</v>
@@ -4279,7 +4206,7 @@
         <v>3.1</v>
       </c>
       <c r="M83">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="N83">
         <v>0.2</v>
@@ -4291,7 +4218,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
         <v>98</v>
       </c>
@@ -4311,7 +4238,7 @@
         <v>50.8</v>
       </c>
       <c r="G84">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="H84">
         <v>2.1</v>
@@ -4338,12 +4265,12 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B85">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C85">
         <v>2.4</v>
@@ -4358,10 +4285,10 @@
         <v>50.2</v>
       </c>
       <c r="G85">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="H85">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="I85">
         <v>52</v>
@@ -4385,7 +4312,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
         <v>100</v>
       </c>
@@ -4399,7 +4326,7 @@
         <v>57.1</v>
       </c>
       <c r="E86">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F86">
         <v>50</v>
@@ -4432,7 +4359,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -4452,7 +4379,7 @@
         <v>49.4</v>
       </c>
       <c r="G87">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="H87">
         <v>1.5</v>
@@ -4479,7 +4406,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
         <v>102</v>
       </c>
@@ -4487,7 +4414,7 @@
         <v>0.6</v>
       </c>
       <c r="C88">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D88">
         <v>54.6</v>
@@ -4511,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="M88">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -4523,7 +4450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
         <v>103</v>
       </c>
@@ -4531,7 +4458,7 @@
         <v>0.6</v>
       </c>
       <c r="C89">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D89">
         <v>54.5</v>
@@ -4558,7 +4485,7 @@
         <v>5.2</v>
       </c>
       <c r="M89">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="N89">
         <v>0.3</v>
@@ -4570,7 +4497,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
         <v>104</v>
       </c>
@@ -4578,13 +4505,13 @@
         <v>0.7</v>
       </c>
       <c r="C90">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D90">
         <v>50.5</v>
       </c>
       <c r="E90">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F90">
         <v>50.5</v>
@@ -4617,7 +4544,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
         <v>105</v>
       </c>
@@ -4625,7 +4552,7 @@
         <v>0.7</v>
       </c>
       <c r="C91">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D91">
         <v>49.3</v>
@@ -4667,7 +4594,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
         <v>106</v>
       </c>
@@ -4675,7 +4602,7 @@
         <v>0.6</v>
       </c>
       <c r="C92">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D92">
         <v>49.1</v>
@@ -4699,7 +4626,7 @@
         <v>7.7</v>
       </c>
       <c r="K92">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="L92">
         <v>49.8</v>
@@ -4717,7 +4644,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
         <v>107</v>
       </c>
@@ -4725,7 +4652,7 @@
         <v>0.6</v>
       </c>
       <c r="C93">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D93">
         <v>48.2</v>
@@ -4737,7 +4664,7 @@
         <v>49.4</v>
       </c>
       <c r="G93">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H93">
         <v>1.3</v>
@@ -4755,7 +4682,7 @@
         <v>48.6</v>
       </c>
       <c r="M93">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -4767,7 +4694,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
         <v>108</v>
       </c>
@@ -4775,7 +4702,7 @@
         <v>0.3</v>
       </c>
       <c r="C94">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D94">
         <v>45</v>
@@ -4799,7 +4726,7 @@
         <v>7.5</v>
       </c>
       <c r="K94">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L94">
         <v>49.3</v>
@@ -4817,7 +4744,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
         <v>109</v>
       </c>
@@ -4825,7 +4752,7 @@
         <v>0.3</v>
       </c>
       <c r="C95">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D95">
         <v>46.5</v>
@@ -4867,7 +4794,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
         <v>110</v>
       </c>
@@ -4875,7 +4802,7 @@
         <v>0.1</v>
       </c>
       <c r="C96">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D96">
         <v>44.5</v>
@@ -4917,7 +4844,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
         <v>111</v>
       </c>
@@ -4925,7 +4852,7 @@
         <v>-0.3</v>
       </c>
       <c r="C97">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D97">
         <v>49.5</v>
@@ -4937,7 +4864,7 @@
         <v>49.3</v>
       </c>
       <c r="G97">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H97">
         <v>0.7</v>
@@ -4955,7 +4882,7 @@
         <v>47.2</v>
       </c>
       <c r="M97">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="N97">
         <v>0.3</v>
@@ -4967,7 +4894,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
         <v>112</v>
       </c>
@@ -4975,7 +4902,7 @@
         <v>-0.1</v>
       </c>
       <c r="C98">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D98">
         <v>48.5</v>
@@ -4987,7 +4914,7 @@
         <v>50.2</v>
       </c>
       <c r="G98">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -5005,7 +4932,7 @@
         <v>45.6</v>
       </c>
       <c r="M98">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="N98">
         <v>0.2</v>
@@ -5017,7 +4944,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
         <v>113</v>
       </c>
@@ -5025,7 +4952,7 @@
         <v>0.2</v>
       </c>
       <c r="C99">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D99">
         <v>49.2</v>
@@ -5055,7 +4982,7 @@
         <v>47.5</v>
       </c>
       <c r="M99">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="N99">
         <v>0.2</v>
@@ -5067,7 +4994,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100" s="1" t="s">
         <v>114</v>
       </c>
@@ -5075,7 +5002,7 @@
         <v>0.2</v>
       </c>
       <c r="C100">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D100">
         <v>48.5</v>
@@ -5114,7 +5041,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
         <v>115</v>
       </c>
@@ -5122,7 +5049,7 @@
         <v>-0.1</v>
       </c>
       <c r="C101">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D101">
         <v>49.7</v>
@@ -5131,7 +5058,7 @@
         <v>5.2</v>
       </c>
       <c r="F101">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="G101">
         <v>6.2</v>
@@ -5146,13 +5073,13 @@
         <v>7.4</v>
       </c>
       <c r="K101">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
         <v>48.2</v>
       </c>
       <c r="M101">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="N101">
         <v>0.1</v>
@@ -5164,7 +5091,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102" s="1" t="s">
         <v>116</v>
       </c>
@@ -5211,21 +5138,21 @@
         <v>49.1</v>
       </c>
       <c r="P102">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B103">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="C103">
         <v>3.3</v>
       </c>
       <c r="D103">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="E103">
         <v>3.3</v>
@@ -5264,7 +5191,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104" s="1" t="s">
         <v>118</v>
       </c>
@@ -5299,7 +5226,7 @@
         <v>3</v>
       </c>
       <c r="L104">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="M104">
         <v>6.1</v>
@@ -5314,7 +5241,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="1" t="s">
         <v>119</v>
       </c>
@@ -5364,7 +5291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
         <v>120</v>
       </c>
@@ -5411,10 +5338,10 @@
         <v>53.9</v>
       </c>
       <c r="P106">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" s="1" t="s">
         <v>121</v>
       </c>
@@ -5464,7 +5391,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108" s="1" t="s">
         <v>122</v>
       </c>
@@ -5514,7 +5441,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" s="1" t="s">
         <v>123</v>
       </c>
@@ -5564,7 +5491,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" s="1" t="s">
         <v>124</v>
       </c>
@@ -5593,10 +5520,10 @@
         <v>53.8</v>
       </c>
       <c r="J110">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K110">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="L110">
         <v>46.3</v>
@@ -5614,7 +5541,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
         <v>125</v>
       </c>
@@ -5643,10 +5570,10 @@
         <v>55.2</v>
       </c>
       <c r="J111">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K111">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="L111">
         <v>49.7</v>
@@ -5664,7 +5591,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" s="1" t="s">
         <v>126</v>
       </c>
@@ -5690,7 +5617,7 @@
         <v>54.8</v>
       </c>
       <c r="J112">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K112">
         <v>5.2</v>
@@ -5711,7 +5638,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113" s="1" t="s">
         <v>127</v>
       </c>
@@ -5740,7 +5667,7 @@
         <v>57.9</v>
       </c>
       <c r="J113">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K113">
         <v>5.7</v>
@@ -5761,7 +5688,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114" s="1" t="s">
         <v>128</v>
       </c>
@@ -5772,7 +5699,7 @@
         <v>3.3</v>
       </c>
       <c r="D114">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E114">
         <v>0.4</v>
@@ -5790,7 +5717,7 @@
         <v>62.5</v>
       </c>
       <c r="J114">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K114">
         <v>5.8</v>
@@ -5811,7 +5738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
         <v>129</v>
       </c>
@@ -5831,7 +5758,7 @@
         <v>51.1</v>
       </c>
       <c r="G115">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H115">
         <v>1.6</v>
@@ -5840,7 +5767,7 @@
         <v>62.9</v>
       </c>
       <c r="J115">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K115">
         <v>5.5</v>
@@ -5861,7 +5788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116" s="1" t="s">
         <v>130</v>
       </c>
@@ -5872,7 +5799,7 @@
         <v>3.2</v>
       </c>
       <c r="D116">
-        <v>68.599999999999994</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E116">
         <v>1.3</v>
@@ -5899,7 +5826,7 @@
         <v>51.9</v>
       </c>
       <c r="M116">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="N116">
         <v>0.7</v>
@@ -5911,7 +5838,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117" s="1" t="s">
         <v>131</v>
       </c>
@@ -5922,10 +5849,10 @@
         <v>3.1</v>
       </c>
       <c r="D117">
-        <v>67.099999999999994</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E117">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F117">
         <v>50.9</v>
@@ -5961,7 +5888,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118" s="1" t="s">
         <v>132</v>
       </c>
@@ -5981,10 +5908,10 @@
         <v>50.4</v>
       </c>
       <c r="G118">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H118">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="I118">
         <v>62.8</v>
@@ -6011,7 +5938,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119" s="1" t="s">
         <v>133</v>
       </c>
@@ -6031,7 +5958,7 @@
         <v>50.1</v>
       </c>
       <c r="G119">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -6049,7 +5976,7 @@
         <v>46.5</v>
       </c>
       <c r="M119">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="N119">
         <v>0.3</v>
@@ -6061,7 +5988,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120" s="1" t="s">
         <v>134</v>
       </c>
@@ -6072,7 +5999,7 @@
         <v>2.8</v>
       </c>
       <c r="D120">
-        <v>67.599999999999994</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E120">
         <v>0.7</v>
@@ -6081,7 +6008,7 @@
         <v>49.6</v>
       </c>
       <c r="G120">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="H120">
         <v>3.4</v>
@@ -6111,7 +6038,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="A121" s="1" t="s">
         <v>135</v>
       </c>
@@ -6131,10 +6058,10 @@
         <v>49.2</v>
       </c>
       <c r="G121">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="H121">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="I121">
         <v>58.3</v>
@@ -6158,10 +6085,10 @@
         <v>60.8</v>
       </c>
       <c r="P121">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" s="1" t="s">
         <v>136</v>
       </c>
@@ -6175,7 +6102,7 @@
         <v>63.8</v>
       </c>
       <c r="E122">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F122">
         <v>50.1</v>
@@ -6184,7 +6111,7 @@
         <v>5</v>
       </c>
       <c r="H122">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="I122">
         <v>58.4</v>
@@ -6211,7 +6138,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16">
       <c r="A123" s="1" t="s">
         <v>137</v>
       </c>
@@ -6231,7 +6158,7 @@
         <v>50.3</v>
       </c>
       <c r="G123">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H123">
         <v>5</v>
